--- a/data/GestureData/Circle_V02_Laleh_Raw_labels.xlsx
+++ b/data/GestureData/Circle_V02_Laleh_Raw_labels.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16020" yWindow="60" windowWidth="12600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>label</t>
   </si>
@@ -49,6 +43,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -406,308 +401,371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1.4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C24" si="0">(B2-A2)-2</f>
+        <v>0.20000000000000018</v>
+      </c>
       <c r="D2">
-        <v>1.4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="F2">
-        <f>(E2-D2)-2</f>
-        <v>0.20000000000000018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>4.2</v>
+      </c>
+      <c r="B3">
+        <v>6.3</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
       <c r="D3">
-        <v>4.2</v>
-      </c>
-      <c r="E3">
-        <v>6.3</v>
-      </c>
-      <c r="F3">
-        <f>(E3-D3)-2</f>
-        <v>9.9999999999999645E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>7.4</v>
+      </c>
+      <c r="B4">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>4.9999999999998934E-2</v>
+      </c>
       <c r="D4">
-        <v>7.4</v>
-      </c>
-      <c r="E4">
-        <v>9.4600000000000009</v>
-      </c>
-      <c r="F4">
-        <f>(E4-D4)-2</f>
-        <v>6.0000000000000497E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>12.3</v>
+      </c>
+      <c r="B5">
+        <v>14.3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D5">
-        <v>12.29</v>
-      </c>
-      <c r="E5">
-        <v>14.29</v>
-      </c>
-      <c r="F5">
-        <f>(E5-D5)-2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>17.2</v>
+      </c>
+      <c r="B6">
+        <v>19.2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
       <c r="D6">
-        <v>17.190000000000001</v>
-      </c>
-      <c r="E6">
-        <v>19.190000000000001</v>
-      </c>
-      <c r="F6">
-        <f>(E6-D6)-2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>20.6</v>
+      </c>
+      <c r="B7">
+        <v>22.55</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-5.0000000000000711E-2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>23.9</v>
+      </c>
+      <c r="B8">
+        <v>25.7</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>26.35</v>
+      </c>
+      <c r="B9">
+        <v>28.6</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>29.15</v>
+      </c>
+      <c r="B10">
+        <v>31.35</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="B11">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.65000000000000568</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>35.5</v>
+      </c>
+      <c r="B12">
+        <v>37.6</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>38.1</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>40.4</v>
+      </c>
+      <c r="B14">
+        <v>42.45</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>5.0000000000004263E-2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>42.5</v>
+      </c>
+      <c r="B15">
+        <v>44.75</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>47.2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>48.85</v>
+      </c>
+      <c r="B17">
+        <v>50.75</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>51.2</v>
+      </c>
+      <c r="B18">
+        <v>53.1</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>53.5</v>
+      </c>
+      <c r="B19">
+        <v>55.3</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>56.3</v>
+      </c>
+      <c r="B20">
+        <v>58.3</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="D7">
-        <v>20.6</v>
-      </c>
-      <c r="E7">
-        <v>22.55</v>
-      </c>
-      <c r="F7">
-        <f>(E7-D7)-2</f>
-        <v>-5.0000000000000711E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="D8">
-        <v>23.9</v>
-      </c>
-      <c r="E8">
-        <v>25.72</v>
-      </c>
-      <c r="F8">
-        <f>(E8-D8)-2</f>
-        <v>-0.17999999999999972</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="D9">
-        <v>26.35</v>
-      </c>
-      <c r="E9">
-        <v>28.59</v>
-      </c>
-      <c r="F9">
-        <f>(E9-D9)-2</f>
-        <v>0.23999999999999844</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="D10">
-        <v>29.15</v>
-      </c>
-      <c r="E10">
-        <v>31.34</v>
-      </c>
-      <c r="F10">
-        <f>(E10-D10)-2</f>
-        <v>0.19000000000000128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="D11">
-        <v>32.04</v>
-      </c>
-      <c r="E11">
-        <v>34.67</v>
-      </c>
-      <c r="F11">
-        <f>(E11-D11)-2</f>
-        <v>0.63000000000000256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="D12">
-        <v>35.5</v>
-      </c>
-      <c r="E12">
-        <v>37.6</v>
-      </c>
-      <c r="F12">
-        <f>(E12-D12)-2</f>
-        <v>0.10000000000000142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="D13">
-        <v>38.07</v>
-      </c>
-      <c r="E13">
-        <v>39.97</v>
-      </c>
-      <c r="F13">
-        <f>(E13-D13)-2</f>
-        <v>-0.10000000000000142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="D14">
-        <v>40.4</v>
-      </c>
-      <c r="E14">
-        <v>42.44</v>
-      </c>
-      <c r="F14">
-        <f>(E14-D14)-2</f>
-        <v>3.9999999999999147E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="D15">
-        <v>42.47</v>
-      </c>
-      <c r="E15">
-        <v>44.73</v>
-      </c>
-      <c r="F15">
-        <f>(E15-D15)-2</f>
-        <v>0.25999999999999801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="D16">
-        <v>44.97</v>
-      </c>
-      <c r="E16">
-        <v>47.17</v>
-      </c>
-      <c r="F16">
-        <f>(E16-D16)-2</f>
-        <v>0.20000000000000284</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6">
-      <c r="D17">
-        <v>48.86</v>
-      </c>
-      <c r="E17">
-        <v>50.73</v>
-      </c>
-      <c r="F17">
-        <f>(E17-D17)-2</f>
-        <v>-0.13000000000000256</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6">
-      <c r="D18">
-        <v>51.19</v>
-      </c>
-      <c r="E18">
-        <v>53.09</v>
-      </c>
-      <c r="F18">
-        <f>(E18-D18)-2</f>
-        <v>-9.9999999999994316E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6">
-      <c r="D19">
-        <v>53.5</v>
-      </c>
-      <c r="E19">
-        <v>55.3</v>
-      </c>
-      <c r="F19">
-        <f>(E19-D19)-2</f>
-        <v>-0.20000000000000284</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6">
       <c r="D20">
-        <v>56.32</v>
-      </c>
-      <c r="E20">
-        <v>58.3</v>
-      </c>
-      <c r="F20">
-        <f>(E20-D20)-2</f>
-        <v>-2.0000000000003126E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>58.75</v>
+      </c>
+      <c r="B21">
+        <v>60.7</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>-4.9999999999997158E-2</v>
+      </c>
       <c r="D21">
-        <v>58.76</v>
-      </c>
-      <c r="E21">
-        <v>60.72</v>
-      </c>
-      <c r="F21">
-        <f>(E21-D21)-2</f>
-        <v>-3.9999999999999147E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>60.9</v>
+      </c>
+      <c r="B22">
+        <v>62.9</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D22">
-        <v>60.9</v>
-      </c>
-      <c r="E22">
-        <v>62.9</v>
-      </c>
-      <c r="F22">
-        <f>(E22-D22)-2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>63.2</v>
+      </c>
+      <c r="B23">
+        <v>65.2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="4:6">
       <c r="D23">
-        <v>63.2</v>
-      </c>
-      <c r="E23">
-        <v>65.22</v>
-      </c>
-      <c r="F23">
-        <f>(E23-D23)-2</f>
-        <v>1.9999999999996021E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>65.7</v>
+      </c>
+      <c r="B24">
+        <v>67.650000000000006</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>-4.9999999999997158E-2</v>
+      </c>
       <c r="D24">
-        <v>65.72</v>
-      </c>
-      <c r="E24">
-        <v>67.650000000000006</v>
-      </c>
-      <c r="F24">
-        <f>(E24-D24)-2</f>
-        <v>-6.9999999999993179E-2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
